--- a/biology/Botanique/Macaranga_tanarius/Macaranga_tanarius.xlsx
+++ b/biology/Botanique/Macaranga_tanarius/Macaranga_tanarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macaranga tanarius est une espèce de plantes à fleurs de la famille des Euphorbiaceae. Elle est trouvée en Asie du Sud, en Papouasie-Nouvelle-Guinée et dans l'est de l'Australie. Elle est généralement considérée comme une espèce pionnière dans les zones perturbées de forêt tropicale. Il est facilement reconnaissable à ses feuilles rondes veinées. En Australie, il pousse naturellement de la rivière Richmond en Nouvelle-Galles du Sud à Cooktown dans les régions tropicales du Queensland.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou arbre buissonnant, atteignant parfois 12 mètres de hauteur et un diamètre du tronc de 40 cm. Le tronc est court et tortueux. L'écorce est gris brun avec des bosses et des irrégularités. Les rameaux sont lisses, bleu gris, avec des cicatrices foliaires.
 Les feuilles sont alternes, rondes, avec une pointe. 8 à 23 cm de long, grises ou blanches sur la face inférieure. Un pétiole long de 8 à 20 cm relie la branche au centre de la feuille elle-même. Neuf nervures principales rayonnent à partir du pétiole, faciles à remarquer sur la face supérieure et inférieure des feuilles.
@@ -545,7 +559,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un bel arbuste d'ornement à feuilles intéressantes. Il est aussi bien apprécié pour servir d'abri aux petits arbres du bush.
 </t>
